--- a/rider/weekly/2017_12.xlsx
+++ b/rider/weekly/2017_12.xlsx
@@ -195,25 +195,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>259</c:v>
+                  <c:v>277</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>237</c:v>
+                  <c:v>219</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>200</c:v>
+                  <c:v>215</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>229</c:v>
+                  <c:v>204</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>280</c:v>
+                  <c:v>305</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>89</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>68</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -271,25 +271,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>226.16</c:v>
+                  <c:v>233.47</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>212.29</c:v>
+                  <c:v>212.9</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>219.1</c:v>
+                  <c:v>211.9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>235.2</c:v>
+                  <c:v>238.1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>239</c:v>
+                  <c:v>240.71</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>115.05</c:v>
+                  <c:v>115.45</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>95.84999999999999</c:v>
+                  <c:v>95.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -810,10 +810,10 @@
         <v>6</v>
       </c>
       <c r="C2">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="D2">
-        <v>226.16</v>
+        <v>233.47</v>
       </c>
       <c r="E2">
         <v>110.94</v>
@@ -827,10 +827,10 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>237</v>
+        <v>219</v>
       </c>
       <c r="D3">
-        <v>212.29</v>
+        <v>212.9</v>
       </c>
       <c r="E3">
         <v>111.1</v>
@@ -844,10 +844,10 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="D4">
-        <v>219.1</v>
+        <v>211.9</v>
       </c>
       <c r="E4">
         <v>111.26</v>
@@ -861,10 +861,10 @@
         <v>12</v>
       </c>
       <c r="C5">
-        <v>229</v>
+        <v>204</v>
       </c>
       <c r="D5">
-        <v>235.2</v>
+        <v>238.1</v>
       </c>
       <c r="E5">
         <v>111.43</v>
@@ -878,10 +878,10 @@
         <v>14</v>
       </c>
       <c r="C6">
-        <v>280</v>
+        <v>305</v>
       </c>
       <c r="D6">
-        <v>239</v>
+        <v>240.71</v>
       </c>
       <c r="E6">
         <v>111.59</v>
@@ -895,10 +895,10 @@
         <v>16</v>
       </c>
       <c r="C7">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D7">
-        <v>115.05</v>
+        <v>115.45</v>
       </c>
       <c r="E7">
         <v>111.75</v>
@@ -912,10 +912,10 @@
         <v>18</v>
       </c>
       <c r="C8">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D8">
-        <v>95.84999999999999</v>
+        <v>95.25</v>
       </c>
       <c r="E8">
         <v>111.91</v>
